--- a/Test_Suite/citrix_delete.xlsx
+++ b/Test_Suite/citrix_delete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D696A7-8A8D-4B18-9066-78600ACD393C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD7D263-1D18-40A5-8506-C2FC64F11267}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,25 +37,25 @@
     <t>Y</t>
   </si>
   <si>
-    <t>CommonUtils.Reboot()</t>
-  </si>
-  <si>
-    <t>CommonUtils.SwitchToAdmin()</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>CommonUtils.SwitchToUser()</t>
-  </si>
-  <si>
     <t>Shell_Citrix().create('standardCitrix')</t>
   </si>
   <si>
-    <t>Shell_Application().utils('standardCitrix', 'Delete')</t>
-  </si>
-  <si>
-    <t>Shell_Application().utils('standardCitrix', 'NotExist')</t>
+    <t>EasyshellLib.CommonUtils.SwitchToUser()</t>
+  </si>
+  <si>
+    <t>EasyshellLib.CommonUtils.Reboot()</t>
+  </si>
+  <si>
+    <t>Shell_Citrix().utils('standardCitrix', 'Delete')</t>
+  </si>
+  <si>
+    <t>Shell_Citrix().utils('standardCitrix', 'NotExist')</t>
+  </si>
+  <si>
+    <t>EasyshellLib.CommonUtils.SwitchToAdmin()</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,32 +413,32 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -446,23 +446,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">

--- a/Test_Suite/citrix_delete.xlsx
+++ b/Test_Suite/citrix_delete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD7D263-1D18-40A5-8506-C2FC64F11267}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F17B9C3-B8FA-4AAA-A481-7751F0316E55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,7 +419,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>

--- a/Test_Suite/citrix_delete.xlsx
+++ b/Test_Suite/citrix_delete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F17B9C3-B8FA-4AAA-A481-7751F0316E55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2865FF26-0A43-4EFA-B7E1-344E499C19A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,13 +49,13 @@
     <t>EasyshellLib.CommonUtils.Reboot()</t>
   </si>
   <si>
-    <t>Shell_Citrix().utils('standardCitrix', 'Delete')</t>
-  </si>
-  <si>
-    <t>Shell_Citrix().utils('standardCitrix', 'NotExist')</t>
-  </si>
-  <si>
     <t>EasyshellLib.CommonUtils.SwitchToAdmin()</t>
+  </si>
+  <si>
+    <t>Shell_Citrix().utils('standardCitrix', 'Delete', "conn")</t>
+  </si>
+  <si>
+    <t>Shell_Citrix().utils('standardCitrix', 'NotExist', "conn")</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,7 +422,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -446,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -454,7 +454,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">

--- a/Test_Suite/citrix_delete.xlsx
+++ b/Test_Suite/citrix_delete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2865FF26-0A43-4EFA-B7E1-344E499C19A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3B18D5-6E80-40B0-855B-F22042C41C57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29184" yWindow="384" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>CheckPoint</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Shell_Citrix().utils('standardCitrix', 'NotExist', "conn")</t>
+  </si>
+  <si>
+    <t>EasyShellTest().resetEasyshell()</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,85 +412,90 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="4"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C48" s="4"/>
@@ -505,14 +513,17 @@
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
